--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Vinaphone.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_Vinaphone.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang2\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="26" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -652,6 +652,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,31 +688,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1111,58 +1111,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1187,23 +1187,23 @@
       <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1288,7 +1288,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1464,7 +1464,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2782,6 +2782,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2793,13 +2800,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2810,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2843,43 +2843,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2924,58 +2924,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3000,23 +3000,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3101,7 +3101,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3277,7 +3277,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3335,7 +3335,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4595,11 +4595,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -4613,6 +4608,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4623,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4656,43 +4656,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4737,58 +4737,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4813,49 +4813,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="44">
+        <v>866192037774971</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="L6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="47">
+        <v>150000</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>72</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4867,26 +4895,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
+      <c r="B7" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="44">
+        <v>861694031108572</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>75</v>
+      </c>
       <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="K7" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4915,7 +4971,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4944,7 +5000,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4973,7 +5029,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5002,7 +5058,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5031,7 +5087,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5062,7 +5118,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5091,7 +5147,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5120,7 +5176,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5149,7 +5205,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5268,7 +5324,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -5300,7 +5356,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -5449,7 +5505,7 @@
       </c>
       <c r="V26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="16"/>
     </row>
@@ -5577,7 +5633,7 @@
       </c>
       <c r="V30" s="11">
         <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="16"/>
     </row>
@@ -5737,7 +5793,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -5801,7 +5857,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -6380,6 +6436,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6391,13 +6454,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
